--- a/Study 3/Shocks/GCAM/NDC_EI - 2080.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2080.xlsx
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.07156638491167291</v>
+        <v>0.0715663849116729</v>
       </c>
     </row>
     <row r="7">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1686066532839902</v>
+        <v>0.1686066532839901</v>
       </c>
     </row>
     <row r="19">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.4496473931239486</v>
+        <v>0.4496473931239485</v>
       </c>
     </row>
     <row r="23">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.1405154064422734</v>
+        <v>0.1405154064422733</v>
       </c>
     </row>
     <row r="35">
